--- a/2019/health_2019.xlsx
+++ b/2019/health_2019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,18 +11,113 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>健康状况统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0601'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待答辩时心情紧张，出汗量偏多</t>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚餐吃饭饮白酒6个分酒器，两杯橙汁，饮酒量偏多，隐患提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为14.77km，共20688步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进食偏多，肉类摄入量偏多，一个偏甜的油糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃了三牙西瓜，喝了一瓶热量极高的小桶冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0602'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上练了两个小时吉他，勒伤了手指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.48km，共11878步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进食偏多，肉类摄入量偏多，烧烤慎吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉良好，晚上睡觉腰有点痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉良好，太紧张睡眠不是很好，有点累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃了一顿烧烤，能量摄入巨大，罪过罪过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹了一会儿空调，感觉有点不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +141,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +444,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="53.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>201906</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2019/health_2019.xlsx
+++ b/2019/health_2019.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>健康状况统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,66 @@
   </si>
   <si>
     <t>吹了一会儿空调，感觉有点不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚停电，晚上太热没有睡好，昏昏沉沉地精神状态不佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午送霞姐去南站，天气太热有点热着了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去柳巷买大后天拍照用的衣服，走的路太多好累好累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入过量，从明天开始执行以前的政策，坚决不吃午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0604'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉不好，有点累，今天对胖云发脾气了，晚上睡觉腰有点痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,6 +629,91 @@
       </c>
       <c r="C16" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
